--- a/k42-el-vo.xlsx
+++ b/k42-el-vo.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
